--- a/biology/Biochimie/Aldolase_B/Aldolase_B.xlsx
+++ b/biology/Biochimie/Aldolase_B/Aldolase_B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'aldolase B est l'une des trois isoenzymes de l'aldolase, une lyase qui catalyse les réactions :
@@ -492,7 +504,7 @@
         ⇌
     {\displaystyle \rightleftharpoons }
   D-glycéraldéhyde-3-phosphate + dihydroxyacétone phosphate.
-Cette enzyme joue un rôle clé dans la glycolyse et la gluconéogenèse. Chez les mammifères, l'aldolase B est exprimée préférentiellement dans le foie tandis que l'aldolase A est exprimée dans les muscles et les érythrocytes et l'aldolase C est exprimée dans le cerveau. Contrairement aux deux autres, qui présentent une préférence pour le fructose-1,6-bisphosphate, l'aldolase B agit aussi bien sur le frucose-1,6-bisphosphate que sur le fructose-1-phosphate[2]. Chez l'homme, elle est encodée par le gène ALDOB situé sur le chromosome 9. Une mutation de ce gène, qui a une longueur de 14 500 paires de bases et contient 9 exons[3], peut être responsable d'une fructosémie[4].
+Cette enzyme joue un rôle clé dans la glycolyse et la gluconéogenèse. Chez les mammifères, l'aldolase B est exprimée préférentiellement dans le foie tandis que l'aldolase A est exprimée dans les muscles et les érythrocytes et l'aldolase C est exprimée dans le cerveau. Contrairement aux deux autres, qui présentent une préférence pour le fructose-1,6-bisphosphate, l'aldolase B agit aussi bien sur le frucose-1,6-bisphosphate que sur le fructose-1-phosphate. Chez l'homme, elle est encodée par le gène ALDOB situé sur le chromosome 9. Une mutation de ce gène, qui a une longueur de 14 500 paires de bases et contient 9 exons, peut être responsable d'une fructosémie.
 </t>
         </is>
       </c>
